--- a/Traces_Example.xlsx
+++ b/Traces_Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexandergerhold/Desktop/MMDS/FSS21/Advanced Process Mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3DCAE6-8E73-EA42-8757-A0A4E4AF5A0C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA38FE26-A2B1-2F48-B15D-8441BC6A3B3B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18000" xr2:uid="{464BE05A-9EFB-AA4F-99D1-7B6530E5C791}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="14">
   <si>
     <t>Traces</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>a,b,j,g</t>
+  </si>
+  <si>
+    <t>i,e,f,b,g</t>
+  </si>
+  <si>
+    <t>c,i,i,i,i,i,f,h,b,g</t>
   </si>
 </sst>
 </file>
@@ -421,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4BB4F7-BFC8-5244-8699-41DC544B26B1}">
-  <dimension ref="A1:A99"/>
+  <dimension ref="A1:A103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A126" sqref="A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -927,6 +933,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
